--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,112 +67,118 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>23</v>
@@ -608,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,16 +632,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7792207792207793</v>
+        <v>0.6643835616438356</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -758,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.2887596899224806</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,38 +811,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.407725321888412</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>114</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
         <v>95</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>95</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>138</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7">
-        <v>0.9375</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3875</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.313953488372093</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,87 +961,63 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1636363636363636</v>
+        <v>0.06720430107526881</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>92</v>
+        <v>347</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.7890625</v>
+      </c>
+      <c r="L10">
+        <v>101</v>
+      </c>
+      <c r="M10">
+        <v>101</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L10">
-        <v>44</v>
-      </c>
-      <c r="M10">
-        <v>44</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1344086021505376</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>161</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.803921568627451</v>
+        <v>0.775</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8035714285714286</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7307692307692307</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1128,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1154,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1206,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1232,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6575342465753424</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6363636363636364</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1310,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.5926892950391645</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1336,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6150234741784038</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L23">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6071428571428571</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5813953488372093</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L26">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="M26">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1440,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5666666666666667</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5652173913043478</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5416666666666666</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L30">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="M30">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1544,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>66</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4375</v>
+        <v>0.421875</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.3947368421052632</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1596,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.0861244019138756</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1622,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>191</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.07804878048780488</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1648,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.05714285714285714</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1674,137 +1653,189 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>297</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.05633802816901409</v>
+        <v>0.05701078582434515</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>402</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.03581020590868397</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M37">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N37">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1077</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.03167420814479638</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N38">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>428</v>
+        <v>847</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.02061855670103093</v>
+        <v>0.05074971164936563</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M39">
         <v>44</v>
       </c>
       <c r="N39">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1520</v>
+        <v>823</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.04781997187060478</v>
+      </c>
+      <c r="L40">
+        <v>102</v>
+      </c>
+      <c r="M40">
+        <v>112</v>
+      </c>
+      <c r="N40">
+        <v>0.91</v>
+      </c>
+      <c r="O40">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K40">
-        <v>0.01638311279143037</v>
-      </c>
-      <c r="L40">
-        <v>26</v>
-      </c>
-      <c r="M40">
-        <v>36</v>
-      </c>
-      <c r="N40">
-        <v>0.72</v>
-      </c>
-      <c r="O40">
-        <v>0.28</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>1561</v>
+      <c r="K41">
+        <v>0.02845134173941158</v>
+      </c>
+      <c r="L41">
+        <v>88</v>
+      </c>
+      <c r="M41">
+        <v>102</v>
+      </c>
+      <c r="N41">
+        <v>0.86</v>
+      </c>
+      <c r="O41">
+        <v>0.14</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.0225705329153605</v>
+      </c>
+      <c r="L42">
+        <v>72</v>
+      </c>
+      <c r="M42">
+        <v>83</v>
+      </c>
+      <c r="N42">
+        <v>0.87</v>
+      </c>
+      <c r="O42">
+        <v>0.13</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3118</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,75 +43,75 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -121,58 +121,49 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>san</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -182,6 +173,9 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -542,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,7 +544,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>23</v>
@@ -611,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -711,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6643835616438356</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,37 +755,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2887596899224806</v>
+        <v>0.2925531914893617</v>
       </c>
       <c r="C6">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2348993288590604</v>
+        <v>0.2771317829457364</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2275132275132275</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1666666666666667</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,69 +923,45 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.78125</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L9">
-        <v>46</v>
-      </c>
-      <c r="M9">
-        <v>46</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.06720430107526881</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>0.04</v>
-      </c>
-      <c r="F10">
-        <v>0.96</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>347</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.7890625</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.775</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,47 +999,47 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>80</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>26</v>
-      </c>
-      <c r="K12">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="L12">
-        <v>108</v>
-      </c>
-      <c r="M12">
-        <v>108</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1081,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7450980392156863</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1107,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7358490566037735</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1133,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1159,12 +1129,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.7</v>
@@ -1190,16 +1160,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6825396825396826</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1211,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.648936170212766</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L19">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1237,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.6382978723404256</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1263,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.62</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1289,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5926892950391645</v>
+        <v>0.5691906005221932</v>
       </c>
       <c r="L22">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M22">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1315,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5813953488372093</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1341,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5208333333333334</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1367,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5205479452054794</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1393,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5152542372881356</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L26">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1419,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5076923076923077</v>
+        <v>0.453125</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1445,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4852941176470588</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L28">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1471,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4831460674157304</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1497,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4309623430962343</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L30">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1523,47 +1493,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>136</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.421875</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4102564102564102</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1575,47 +1545,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3571428571428572</v>
+        <v>0.07838745800671892</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.1004784688995215</v>
+        <v>0.06437291897891231</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1627,73 +1597,73 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>376</v>
+        <v>843</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.07211538461538461</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>386</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.05701078582434515</v>
+        <v>0.05360824742268041</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>612</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.05660377358490566</v>
+        <v>0.04959630911188005</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1705,137 +1675,111 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>850</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.05257270693512305</v>
+        <v>0.04460093896713615</v>
       </c>
       <c r="L38">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="M38">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>847</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.05074971164936563</v>
+        <v>0.03299902944031058</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>823</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.04781997187060478</v>
+        <v>0.02797927461139896</v>
       </c>
       <c r="L40">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2031</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="L41">
         <v>55</v>
       </c>
-      <c r="K41">
-        <v>0.02845134173941158</v>
-      </c>
-      <c r="L41">
-        <v>88</v>
-      </c>
       <c r="M41">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="N41">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="O41">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42">
-        <v>0.0225705329153605</v>
-      </c>
-      <c r="L42">
-        <v>72</v>
-      </c>
-      <c r="M42">
-        <v>83</v>
-      </c>
-      <c r="N42">
-        <v>0.87</v>
-      </c>
-      <c r="O42">
-        <v>0.13</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>3118</v>
+        <v>3135</v>
       </c>
     </row>
   </sheetData>
